--- a/teaching/traditional_assets/database/data/norway/norway_insurance_prop_cas.xlsx
+++ b/teaching/traditional_assets/database/data/norway/norway_insurance_prop_cas.xlsx
@@ -591,25 +591,25 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.317</v>
+        <v>0.274</v>
       </c>
       <c r="G2">
-        <v>-0.06178067318132466</v>
+        <v>-0.01452784503631961</v>
       </c>
       <c r="H2">
-        <v>-0.06178067318132466</v>
+        <v>-0.01452784503631961</v>
       </c>
       <c r="I2">
-        <v>-0.0503800217155266</v>
+        <v>-0.0188861985472155</v>
       </c>
       <c r="J2">
-        <v>-0.0503800217155266</v>
+        <v>-0.0188861985472155</v>
       </c>
       <c r="K2">
-        <v>-9.74</v>
+        <v>-36.1</v>
       </c>
       <c r="L2">
-        <v>-0.1057546145494028</v>
+        <v>-0.4370460048426151</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -633,73 +633,73 @@
         <v>0</v>
       </c>
       <c r="U2">
+        <v>9.23</v>
+      </c>
+      <c r="V2">
+        <v>0.8315315315315316</v>
+      </c>
+      <c r="W2">
+        <v>-1.058651026392962</v>
+      </c>
+      <c r="X2">
+        <v>0.07516306640179389</v>
+      </c>
+      <c r="Y2">
+        <v>-1.133814092794756</v>
+      </c>
+      <c r="Z2">
+        <v>5.816901408450704</v>
+      </c>
+      <c r="AA2">
+        <v>-0.1098591549295775</v>
+      </c>
+      <c r="AB2">
+        <v>0.0445146645977909</v>
+      </c>
+      <c r="AC2">
+        <v>-0.1543738195273684</v>
+      </c>
+      <c r="AD2">
         <v>16.1</v>
       </c>
-      <c r="V2">
-        <v>0.1366723259762309</v>
-      </c>
-      <c r="W2">
-        <v>-0.1873076923076923</v>
-      </c>
-      <c r="X2">
-        <v>0.04885185850471943</v>
-      </c>
-      <c r="Y2">
-        <v>-0.2361595508124117</v>
-      </c>
-      <c r="Z2">
-        <v>8.001737619461334</v>
-      </c>
-      <c r="AA2">
-        <v>-0.4031277150304081</v>
-      </c>
-      <c r="AB2">
-        <v>0.04557843221314001</v>
-      </c>
-      <c r="AC2">
-        <v>-0.4487061472435481</v>
-      </c>
-      <c r="AD2">
-        <v>20.4</v>
-      </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>20.4</v>
+        <v>16.1</v>
       </c>
       <c r="AG2">
-        <v>4.299999999999997</v>
+        <v>6.870000000000001</v>
       </c>
       <c r="AH2">
-        <v>0.1476121562952243</v>
+        <v>0.5919117647058824</v>
       </c>
       <c r="AI2">
-        <v>0.3743119266055046</v>
+        <v>0.6686046511627907</v>
       </c>
       <c r="AJ2">
-        <v>0.0352170352170352</v>
+        <v>0.3823038397328882</v>
       </c>
       <c r="AK2">
-        <v>0.1119791666666666</v>
+        <v>0.4626262626262627</v>
       </c>
       <c r="AL2">
-        <v>1.41</v>
+        <v>1.66</v>
       </c>
       <c r="AM2">
-        <v>1.41</v>
+        <v>1.66</v>
       </c>
       <c r="AN2">
-        <v>-6.517571884984025</v>
+        <v>-38.98305084745763</v>
       </c>
       <c r="AO2">
-        <v>-3.290780141843971</v>
+        <v>-0.9397590361445783</v>
       </c>
       <c r="AP2">
-        <v>-1.373801916932907</v>
+        <v>-16.63438256658596</v>
       </c>
       <c r="AQ2">
-        <v>-3.290780141843971</v>
+        <v>-0.9397590361445783</v>
       </c>
     </row>
     <row r="3">
@@ -719,25 +719,25 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.317</v>
+        <v>0.274</v>
       </c>
       <c r="G3">
-        <v>-0.06178067318132466</v>
+        <v>-0.01452784503631961</v>
       </c>
       <c r="H3">
-        <v>-0.06178067318132466</v>
+        <v>-0.01452784503631961</v>
       </c>
       <c r="I3">
-        <v>-0.0503800217155266</v>
+        <v>-0.0188861985472155</v>
       </c>
       <c r="J3">
-        <v>-0.0503800217155266</v>
+        <v>-0.0188861985472155</v>
       </c>
       <c r="K3">
-        <v>-9.74</v>
+        <v>-36.1</v>
       </c>
       <c r="L3">
-        <v>-0.1057546145494028</v>
+        <v>-0.4370460048426151</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -761,73 +761,73 @@
         <v>0</v>
       </c>
       <c r="U3">
+        <v>9.23</v>
+      </c>
+      <c r="V3">
+        <v>0.8315315315315316</v>
+      </c>
+      <c r="W3">
+        <v>-1.058651026392962</v>
+      </c>
+      <c r="X3">
+        <v>0.07516306640179389</v>
+      </c>
+      <c r="Y3">
+        <v>-1.133814092794756</v>
+      </c>
+      <c r="Z3">
+        <v>5.816901408450704</v>
+      </c>
+      <c r="AA3">
+        <v>-0.1098591549295775</v>
+      </c>
+      <c r="AB3">
+        <v>0.0445146645977909</v>
+      </c>
+      <c r="AC3">
+        <v>-0.1543738195273684</v>
+      </c>
+      <c r="AD3">
         <v>16.1</v>
       </c>
-      <c r="V3">
-        <v>0.1366723259762309</v>
-      </c>
-      <c r="W3">
-        <v>-0.1873076923076923</v>
-      </c>
-      <c r="X3">
-        <v>0.04885185850471943</v>
-      </c>
-      <c r="Y3">
-        <v>-0.2361595508124117</v>
-      </c>
-      <c r="Z3">
-        <v>8.001737619461334</v>
-      </c>
-      <c r="AA3">
-        <v>-0.4031277150304081</v>
-      </c>
-      <c r="AB3">
-        <v>0.04557843221314001</v>
-      </c>
-      <c r="AC3">
-        <v>-0.4487061472435481</v>
-      </c>
-      <c r="AD3">
-        <v>20.4</v>
-      </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>20.4</v>
+        <v>16.1</v>
       </c>
       <c r="AG3">
-        <v>4.299999999999997</v>
+        <v>6.870000000000001</v>
       </c>
       <c r="AH3">
-        <v>0.1476121562952243</v>
+        <v>0.5919117647058824</v>
       </c>
       <c r="AI3">
-        <v>0.3743119266055046</v>
+        <v>0.6686046511627907</v>
       </c>
       <c r="AJ3">
-        <v>0.0352170352170352</v>
+        <v>0.3823038397328882</v>
       </c>
       <c r="AK3">
-        <v>0.1119791666666666</v>
+        <v>0.4626262626262627</v>
       </c>
       <c r="AL3">
-        <v>1.41</v>
+        <v>1.66</v>
       </c>
       <c r="AM3">
-        <v>1.41</v>
+        <v>1.66</v>
       </c>
       <c r="AN3">
-        <v>-6.517571884984025</v>
+        <v>-38.98305084745763</v>
       </c>
       <c r="AO3">
-        <v>-3.290780141843971</v>
+        <v>-0.9397590361445783</v>
       </c>
       <c r="AP3">
-        <v>-1.373801916932907</v>
+        <v>-16.63438256658596</v>
       </c>
       <c r="AQ3">
-        <v>-3.290780141843971</v>
+        <v>-0.9397590361445783</v>
       </c>
     </row>
   </sheetData>
